--- a/biology/Botanique/Chondrorhyncha/Chondrorhyncha.xlsx
+++ b/biology/Botanique/Chondrorhyncha/Chondrorhyncha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chondrorhyncha est un genre d'orchidées épiphytes sympodiales qui regroupe 30 (ou 61 selon les classifications) espèces des zones tropicales d'Amérique, du sud du Mexique, jusqu'à la Bolivie en Amérique du Sud et Cuba, que l'on rencontre à flanc de montagne, entre 500 et 2 000 mètres d'altitude.
 Son nom provient du grec xhonseoa (cartilage) et rhynchos (nez)
@@ -512,17 +524,19 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes
-Warczewiczella Rchb.f.[2]
-Ackermania Dodson &amp; R.Escobar[3], nom. illeg.
-Aetheorhyncha Dressler[4]
-Daiotyla Dressler[5]
-Echinorhyncha Dressler[4]
-Euryblema Dressler[4]
-Ixyophora Dressler[6]
-Stenotyla Dressler[7]</t>
+Warczewiczella Rchb.f.
+Ackermania Dodson &amp; R.Escobar, nom. illeg.
+Aetheorhyncha Dressler
+Daiotyla Dressler
+Echinorhyncha Dressler
+Euryblema Dressler
+Ixyophora Dressler
+Stenotyla Dressler</t>
         </is>
       </c>
     </row>
@@ -550,7 +564,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Espèce type: Chondrorhyncha rosea Lindl. (1846).
 Chondrorhyncha albicans Rolfe
